--- a/data/pca/factorExposure/factorExposure_2013-05-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-27.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.001122949953194011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001952989703588486</v>
+      </c>
+      <c r="C2">
+        <v>-0.0326773421320903</v>
+      </c>
+      <c r="D2">
+        <v>-0.005691223692720755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001500843341764948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005832740849754271</v>
+      </c>
+      <c r="C4">
+        <v>-0.08334200535608477</v>
+      </c>
+      <c r="D4">
+        <v>-0.0803222758572001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.659803268684248e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01311584004577307</v>
+      </c>
+      <c r="C6">
+        <v>-0.1068300233833696</v>
+      </c>
+      <c r="D6">
+        <v>-0.03630141249122915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001771056139075791</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004786699743765293</v>
+      </c>
+      <c r="C7">
+        <v>-0.05166746506853979</v>
+      </c>
+      <c r="D7">
+        <v>-0.03812690611243191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.001667173232891336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005616341160737462</v>
+      </c>
+      <c r="C8">
+        <v>-0.03683845027056834</v>
+      </c>
+      <c r="D8">
+        <v>-0.0391000188656838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.004685567944724725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.003887050260984912</v>
+      </c>
+      <c r="C9">
+        <v>-0.06842951724213141</v>
+      </c>
+      <c r="D9">
+        <v>-0.07077209406915176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.003234025619646809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005767324117172672</v>
+      </c>
+      <c r="C10">
+        <v>-0.07600957098148427</v>
+      </c>
+      <c r="D10">
+        <v>0.2111456266188935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.004627299149400803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.004954546857280042</v>
+      </c>
+      <c r="C11">
+        <v>-0.07767352918494994</v>
+      </c>
+      <c r="D11">
+        <v>-0.06432150195992413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000652798616225115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003648156221049786</v>
+      </c>
+      <c r="C12">
+        <v>-0.06259965852467032</v>
+      </c>
+      <c r="D12">
+        <v>-0.04607107478248867</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003770800435603548</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.00856095755689551</v>
+      </c>
+      <c r="C13">
+        <v>-0.06894471307459359</v>
+      </c>
+      <c r="D13">
+        <v>-0.0705324477554423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002524165302323139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001542464356839603</v>
+      </c>
+      <c r="C14">
+        <v>-0.0458742590564601</v>
+      </c>
+      <c r="D14">
+        <v>-0.01414835870720858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002573622771558024</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.00562232619212672</v>
+      </c>
+      <c r="C15">
+        <v>-0.03789299730274524</v>
+      </c>
+      <c r="D15">
+        <v>-0.03871515600192773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.002614894363684955</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004735888082812964</v>
+      </c>
+      <c r="C16">
+        <v>-0.06405386591552251</v>
+      </c>
+      <c r="D16">
+        <v>-0.04882245109840179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0007850003921723265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008888427169696142</v>
+      </c>
+      <c r="C20">
+        <v>-0.06453730522059241</v>
+      </c>
+      <c r="D20">
+        <v>-0.05603380302716466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.004359074186333588</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009902603390983953</v>
+      </c>
+      <c r="C21">
+        <v>-0.02280158227770031</v>
+      </c>
+      <c r="D21">
+        <v>-0.036374129689426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01635466433597914</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.0071624049015615</v>
+      </c>
+      <c r="C22">
+        <v>-0.09149234584331271</v>
+      </c>
+      <c r="D22">
+        <v>-0.1012282731351271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01670306977983686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.00695317866619788</v>
+      </c>
+      <c r="C23">
+        <v>-0.092551737419329</v>
+      </c>
+      <c r="D23">
+        <v>-0.1018592826134371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.003173067327805177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.004547524076997468</v>
+      </c>
+      <c r="C24">
+        <v>-0.07182681650825168</v>
+      </c>
+      <c r="D24">
+        <v>-0.06094915522086208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004700217583062646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002638090823765489</v>
+      </c>
+      <c r="C25">
+        <v>-0.07681179348789013</v>
+      </c>
+      <c r="D25">
+        <v>-0.06571440821296065</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00596914025897222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003587437452792796</v>
+      </c>
+      <c r="C26">
+        <v>-0.04107096276136443</v>
+      </c>
+      <c r="D26">
+        <v>-0.02836654477218527</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007300335725612585</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0005034877530670967</v>
+      </c>
+      <c r="C28">
+        <v>-0.1273070169163419</v>
+      </c>
+      <c r="D28">
+        <v>0.3079273497441959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002525797451055621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003228167227382903</v>
+      </c>
+      <c r="C29">
+        <v>-0.04781060498845163</v>
+      </c>
+      <c r="D29">
+        <v>-0.01611956152741681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004338885815047227</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008500909904788774</v>
+      </c>
+      <c r="C30">
+        <v>-0.1360087667619653</v>
+      </c>
+      <c r="D30">
+        <v>-0.1105238159311039</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0002504936963755317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.005984661179999845</v>
+      </c>
+      <c r="C31">
+        <v>-0.04524832072756781</v>
+      </c>
+      <c r="D31">
+        <v>-0.03275452906702919</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001796617118968583</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00386264787572301</v>
+      </c>
+      <c r="C32">
+        <v>-0.0406346749971326</v>
+      </c>
+      <c r="D32">
+        <v>-0.01202101531790166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002970995534873485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007513567627357996</v>
+      </c>
+      <c r="C33">
+        <v>-0.08229850261975497</v>
+      </c>
+      <c r="D33">
+        <v>-0.0756765970724583</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.005244893492190824</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003546026885979082</v>
+      </c>
+      <c r="C34">
+        <v>-0.05665365983834153</v>
+      </c>
+      <c r="D34">
+        <v>-0.04653222778749837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.003452756981114003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.004703838895085161</v>
+      </c>
+      <c r="C35">
+        <v>-0.03801523829899458</v>
+      </c>
+      <c r="D35">
+        <v>-0.01280218553158157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004313282949857345</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001404878347031257</v>
+      </c>
+      <c r="C36">
+        <v>-0.02340939851918974</v>
+      </c>
+      <c r="D36">
+        <v>-0.02138590731368638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.00227906280781482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009489225341598918</v>
+      </c>
+      <c r="C38">
+        <v>-0.03389396968740108</v>
+      </c>
+      <c r="D38">
+        <v>-0.02373071765300793</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01304631591087512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001217253751952986</v>
+      </c>
+      <c r="C39">
+        <v>-0.1139066960522025</v>
+      </c>
+      <c r="D39">
+        <v>-0.08358993903541319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007517564881927627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002182682785520073</v>
+      </c>
+      <c r="C40">
+        <v>-0.08727542908834342</v>
+      </c>
+      <c r="D40">
+        <v>-0.02688913004127472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.310044718547235e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.00728150547118082</v>
+      </c>
+      <c r="C41">
+        <v>-0.03843607050922982</v>
+      </c>
+      <c r="D41">
+        <v>-0.0358399896162552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002748909750236542</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003141647143076668</v>
+      </c>
+      <c r="C43">
+        <v>-0.04980298021327634</v>
+      </c>
+      <c r="D43">
+        <v>-0.0283706971730501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004385312538475248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003438518447724247</v>
+      </c>
+      <c r="C44">
+        <v>-0.1079046303864389</v>
+      </c>
+      <c r="D44">
+        <v>-0.08480462743577133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002275057353256817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002355081949147176</v>
+      </c>
+      <c r="C46">
+        <v>-0.03504188542856036</v>
+      </c>
+      <c r="D46">
+        <v>-0.0344411259992505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0008446000438583717</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002821469223783377</v>
+      </c>
+      <c r="C47">
+        <v>-0.03957787878815548</v>
+      </c>
+      <c r="D47">
+        <v>-0.02538166556005698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004168312222396739</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006394264901063399</v>
+      </c>
+      <c r="C48">
+        <v>-0.02894286653293782</v>
+      </c>
+      <c r="D48">
+        <v>-0.03052044170265561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01313178927129717</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01361929494003697</v>
+      </c>
+      <c r="C49">
+        <v>-0.1705328658975729</v>
+      </c>
+      <c r="D49">
+        <v>-0.03448205302537292</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-5.32220824093131e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003458327374891568</v>
+      </c>
+      <c r="C50">
+        <v>-0.04153340723104668</v>
+      </c>
+      <c r="D50">
+        <v>-0.03645371757947861</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.002059129045762484</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004101076393328009</v>
+      </c>
+      <c r="C51">
+        <v>-0.01985338205899363</v>
+      </c>
+      <c r="D51">
+        <v>-0.03313144545698883</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001427021980232577</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02011644596094982</v>
+      </c>
+      <c r="C53">
+        <v>-0.1645605708639086</v>
+      </c>
+      <c r="D53">
+        <v>-0.05298943146358185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.0003439063957031014</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008331648645754249</v>
+      </c>
+      <c r="C54">
+        <v>-0.05530559823268542</v>
+      </c>
+      <c r="D54">
+        <v>-0.04221339379293294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004700371430797248</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009225023000455116</v>
+      </c>
+      <c r="C55">
+        <v>-0.1048238151518584</v>
+      </c>
+      <c r="D55">
+        <v>-0.05306289111173572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003490339746597484</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.01936075438582057</v>
+      </c>
+      <c r="C56">
+        <v>-0.1712124767935018</v>
+      </c>
+      <c r="D56">
+        <v>-0.0501311593004973</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007676039749536911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01932956677117613</v>
+      </c>
+      <c r="C58">
+        <v>-0.1013939853006288</v>
+      </c>
+      <c r="D58">
+        <v>-0.07843027655853414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008908358000552568</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009304005272415249</v>
+      </c>
+      <c r="C59">
+        <v>-0.1701740297242499</v>
+      </c>
+      <c r="D59">
+        <v>0.2798138736863536</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.006766757397887046</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02299538514825564</v>
+      </c>
+      <c r="C60">
+        <v>-0.2212366645906871</v>
+      </c>
+      <c r="D60">
+        <v>-0.02901135846227102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01477092684169246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002198321362805791</v>
+      </c>
+      <c r="C61">
+        <v>-0.094069391399472</v>
+      </c>
+      <c r="D61">
+        <v>-0.06271104684315487</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1817962385086924</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1434553466105987</v>
+      </c>
+      <c r="C62">
+        <v>-0.0763567113696744</v>
+      </c>
+      <c r="D62">
+        <v>-0.05446524227937673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001378468321156761</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006382682115839302</v>
+      </c>
+      <c r="C63">
+        <v>-0.05915800727698499</v>
+      </c>
+      <c r="D63">
+        <v>-0.02544355744514595</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.007279235211913013</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0144997803743802</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024021948013737</v>
+      </c>
+      <c r="D64">
+        <v>-0.06503668320684428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007876756727888326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01688114364486608</v>
+      </c>
+      <c r="C65">
+        <v>-0.1137431852718504</v>
+      </c>
+      <c r="D65">
+        <v>-0.02984489806858883</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008759120063122117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0119021248669573</v>
+      </c>
+      <c r="C66">
+        <v>-0.1523714665820188</v>
+      </c>
+      <c r="D66">
+        <v>-0.1220199211254272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002520325821541511</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01554264708597934</v>
+      </c>
+      <c r="C67">
+        <v>-0.0632331837419183</v>
+      </c>
+      <c r="D67">
+        <v>-0.03513119467805291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009036628857491152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.001352158242403752</v>
+      </c>
+      <c r="C68">
+        <v>-0.110440281973426</v>
+      </c>
+      <c r="D68">
+        <v>0.2609387519974302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002549996185653415</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.00564870155962108</v>
+      </c>
+      <c r="C69">
+        <v>-0.04705977897840471</v>
+      </c>
+      <c r="D69">
+        <v>-0.04292366298704926</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001666602151039394</v>
+      </c>
+      <c r="C70">
+        <v>-0.001637895788030779</v>
+      </c>
+      <c r="D70">
+        <v>-0.001914642791913588</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005102278509446751</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.006126454898519147</v>
+      </c>
+      <c r="C71">
+        <v>-0.1129752180149039</v>
+      </c>
+      <c r="D71">
+        <v>0.2830246078076565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008821087868936419</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01501034380784694</v>
+      </c>
+      <c r="C72">
+        <v>-0.1500553726781109</v>
+      </c>
+      <c r="D72">
+        <v>-0.02618908668487093</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01330081185146167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02922668794356936</v>
+      </c>
+      <c r="C73">
+        <v>-0.2827023869873869</v>
+      </c>
+      <c r="D73">
+        <v>-0.05138480236667323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004455859156869892</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001417506807425441</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044323152851636</v>
+      </c>
+      <c r="D74">
+        <v>-0.04348426147553947</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006466682636164598</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01050269342557776</v>
+      </c>
+      <c r="C75">
+        <v>-0.1308850988398388</v>
+      </c>
+      <c r="D75">
+        <v>-0.03733630767902139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.0117965476653617</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02113918345443803</v>
+      </c>
+      <c r="C76">
+        <v>-0.1449130861652311</v>
+      </c>
+      <c r="D76">
+        <v>-0.07415495031756093</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.002160141432077741</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02399292449634051</v>
+      </c>
+      <c r="C77">
+        <v>-0.1322235944579961</v>
+      </c>
+      <c r="D77">
+        <v>-0.06515826204691758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003680157555712702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01391933593501209</v>
+      </c>
+      <c r="C78">
+        <v>-0.09047225060312396</v>
+      </c>
+      <c r="D78">
+        <v>-0.06995394640977157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02729989500127166</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03668028588335176</v>
+      </c>
+      <c r="C79">
+        <v>-0.1556560809622255</v>
+      </c>
+      <c r="D79">
+        <v>-0.03464279141041395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005349352220607327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01054398117763683</v>
+      </c>
+      <c r="C80">
+        <v>-0.04137653539992974</v>
+      </c>
+      <c r="D80">
+        <v>-0.03269529206941187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>2.416299700246649e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01440277715279793</v>
+      </c>
+      <c r="C81">
+        <v>-0.1209729404375419</v>
+      </c>
+      <c r="D81">
+        <v>-0.05670667646449674</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.006424152438513359</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01946188274623522</v>
+      </c>
+      <c r="C82">
+        <v>-0.1415614201629048</v>
+      </c>
+      <c r="D82">
+        <v>-0.04880020607149764</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.00590850185405765</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009626922878780307</v>
+      </c>
+      <c r="C83">
+        <v>-0.05586468874400152</v>
+      </c>
+      <c r="D83">
+        <v>-0.05204686531521621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01451557161386188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01141017061127853</v>
+      </c>
+      <c r="C84">
+        <v>-0.02966225671639906</v>
+      </c>
+      <c r="D84">
+        <v>7.010679182992659e-05</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0158038519918677</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02777275426756216</v>
+      </c>
+      <c r="C85">
+        <v>-0.1279435907893325</v>
+      </c>
+      <c r="D85">
+        <v>-0.05261826311021531</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002987693869132518</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005282681289245131</v>
+      </c>
+      <c r="C86">
+        <v>-0.04918777709277355</v>
+      </c>
+      <c r="D86">
+        <v>-0.02399067433556524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007771260112277765</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.009800732001025988</v>
+      </c>
+      <c r="C87">
+        <v>-0.127415968734113</v>
+      </c>
+      <c r="D87">
+        <v>-0.08165817914970844</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01436958491749737</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003060199875879029</v>
+      </c>
+      <c r="C88">
+        <v>-0.06881265933897809</v>
+      </c>
+      <c r="D88">
+        <v>-0.01763363574954693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01794259481063677</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00103460853865168</v>
+      </c>
+      <c r="C89">
+        <v>-0.1641683244347</v>
+      </c>
+      <c r="D89">
+        <v>0.3438010814338337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005276294802014238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007319171692725281</v>
+      </c>
+      <c r="C90">
+        <v>-0.1426911033797325</v>
+      </c>
+      <c r="D90">
+        <v>0.3157410686075285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001836839729321352</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0101896067917895</v>
+      </c>
+      <c r="C91">
+        <v>-0.1046446864223945</v>
+      </c>
+      <c r="D91">
+        <v>-0.02050765969199421</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01470990623579755</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0004135274500677231</v>
+      </c>
+      <c r="C92">
+        <v>-0.1532930095550541</v>
+      </c>
+      <c r="D92">
+        <v>0.3264758470706987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003337378203221579</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005201243095017283</v>
+      </c>
+      <c r="C93">
+        <v>-0.1254697481514989</v>
+      </c>
+      <c r="D93">
+        <v>0.3113902333442658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00396211679521198</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02187787809940765</v>
+      </c>
+      <c r="C94">
+        <v>-0.1564152253781094</v>
+      </c>
+      <c r="D94">
+        <v>-0.0364168554081821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004758844882139973</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01585170257365924</v>
+      </c>
+      <c r="C95">
+        <v>-0.1240644069738601</v>
+      </c>
+      <c r="D95">
+        <v>-0.07049098596719058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002461949375465873</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03417810363449079</v>
+      </c>
+      <c r="C97">
+        <v>-0.1783058628589809</v>
+      </c>
+      <c r="D97">
+        <v>-0.04415180855868282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.006593976591966324</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03538917776051588</v>
+      </c>
+      <c r="C98">
+        <v>-0.2555512242713104</v>
+      </c>
+      <c r="D98">
+        <v>-0.04245049492298576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9809170800604838</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829090863529338</v>
+      </c>
+      <c r="C99">
+        <v>0.1079036285509684</v>
+      </c>
+      <c r="D99">
+        <v>0.03259243510148863</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002484578869372385</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003267686185698994</v>
+      </c>
+      <c r="C101">
+        <v>-0.04782613114497217</v>
+      </c>
+      <c r="D101">
+        <v>-0.01648965828749556</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
